--- a/App Schedule.xlsx
+++ b/App Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大三下课程\软件开发综合实践\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\x学习\homework\sj实践课\PaperCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly_Shedule" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1270,7 +1270,7 @@
         <xdr:cNvPr id="2" name="直接箭头连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="3" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1488,7 @@
         <xdr:cNvPr id="4" name="组合 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
           <xdr:cNvPr id="5" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1701,7 +1701,7 @@
           <xdr:cNvPr id="6" name="矩形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1891,7 +1891,7 @@
           <xdr:cNvPr id="7" name="直接连接符 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1939,7 +1939,7 @@
         <xdr:cNvPr id="20" name="直接连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1995,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2055,7 @@
         <xdr:cNvPr id="26" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2210,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2270,7 @@
         <xdr:cNvPr id="28" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2425,7 @@
         <xdr:cNvPr id="23" name="组合 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2445,7 @@
           <xdr:cNvPr id="24" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
           <xdr:cNvPr id="25" name="矩形 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2850,7 +2850,7 @@
           <xdr:cNvPr id="29" name="直接连接符 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2898,7 +2898,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2918,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3108,7 +3108,7 @@
           <xdr:cNvPr id="33" name="直接连接符 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3156,7 +3156,7 @@
         <xdr:cNvPr id="34" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3364,7 @@
         <xdr:cNvPr id="35" name="组合 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,7 +3384,7 @@
           <xdr:cNvPr id="36" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3577,7 +3577,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3745,7 +3745,7 @@
           <xdr:cNvPr id="38" name="直接连接符 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="39" name="组合 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3813,7 +3813,7 @@
           <xdr:cNvPr id="40" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4006,7 +4006,7 @@
           <xdr:cNvPr id="41" name="矩形 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4174,7 +4174,7 @@
           <xdr:cNvPr id="42" name="直接连接符 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4222,7 +4222,7 @@
         <xdr:cNvPr id="54" name="直接箭头连接符 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4282,7 +4282,7 @@
         <xdr:cNvPr id="55" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4437,7 +4437,7 @@
         <xdr:cNvPr id="60" name="组合 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4457,7 +4457,7 @@
           <xdr:cNvPr id="61" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4650,7 +4650,7 @@
           <xdr:cNvPr id="62" name="矩形 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4851,7 +4851,7 @@
           <xdr:cNvPr id="63" name="直接连接符 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4899,7 +4899,7 @@
         <xdr:cNvPr id="64" name="组合 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4919,7 +4919,7 @@
           <xdr:cNvPr id="65" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5112,7 +5112,7 @@
           <xdr:cNvPr id="66" name="矩形 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5280,7 +5280,7 @@
           <xdr:cNvPr id="67" name="直接连接符 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5328,7 +5328,7 @@
         <xdr:cNvPr id="68" name="组合 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5348,7 +5348,7 @@
           <xdr:cNvPr id="69" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5541,7 +5541,7 @@
           <xdr:cNvPr id="70" name="矩形 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5734,7 +5734,7 @@
           <xdr:cNvPr id="71" name="直接连接符 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5782,7 +5782,7 @@
         <xdr:cNvPr id="72" name="组合 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5802,7 +5802,7 @@
           <xdr:cNvPr id="73" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5995,7 +5995,7 @@
           <xdr:cNvPr id="74" name="矩形 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6210,7 +6210,7 @@
           <xdr:cNvPr id="75" name="直接连接符 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6258,7 +6258,7 @@
         <xdr:cNvPr id="76" name="组合 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6278,7 +6278,7 @@
           <xdr:cNvPr id="77" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6471,7 +6471,7 @@
           <xdr:cNvPr id="78" name="矩形 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6661,7 +6661,7 @@
           <xdr:cNvPr id="79" name="直接连接符 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6709,7 +6709,7 @@
         <xdr:cNvPr id="80" name="组合 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6729,7 +6729,7 @@
           <xdr:cNvPr id="81" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6922,7 +6922,7 @@
           <xdr:cNvPr id="82" name="矩形 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7112,7 +7112,7 @@
           <xdr:cNvPr id="83" name="直接连接符 82">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7165,7 +7165,7 @@
         <xdr:cNvPr id="2" name="直接连接符 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7206,7 +7206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7494,8 +7494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7623,10 +7623,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AV1" activePane="topRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozenSplit"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B30" sqref="A30:XFD30"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7635,6 +7635,7 @@
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="69.375" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="26" customWidth="1"/>
+    <col min="5" max="81" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="21" x14ac:dyDescent="0.15">
@@ -8264,7 +8265,7 @@
       <c r="CB7" s="49"/>
       <c r="CC7" s="49"/>
     </row>
-    <row r="8" spans="1:81" ht="45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:81" ht="44.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
